--- a/03_PE/010 重定向表.xlsx
+++ b/03_PE/010 重定向表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03_PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BAC2C4-B209-4EC5-9BF5-0A6FAA14EF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F5669-5FC2-42E2-BECA-5B25E0345B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="846">
   <si>
     <t>重定位表：</t>
   </si>
@@ -2630,6 +2630,10 @@
   </si>
   <si>
     <t>当前块的总大小(这个结构体_IMAGE_BASE_RELOCATION的开始到下一个该结构体)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个要修复的物理页中的绝对地址</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3893,22 +3897,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66067</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>41608</xdr:rowOff>
+      <xdr:colOff>396241</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>59922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A882F57-B069-4688-8F70-65D41C60CBF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6459C9BE-2E11-4CE5-DE4F-C9BD70FD9A1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,8 +3928,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="12336780"/>
-          <a:ext cx="4866667" cy="2419048"/>
+          <a:off x="876301" y="12260580"/>
+          <a:ext cx="5006340" cy="1919202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607379</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3F80B2-427D-5CD9-76AC-DB148A6898E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914401" y="14660880"/>
+          <a:ext cx="6550978" cy="2750819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4340,8 +4388,8 @@
   </sheetPr>
   <dimension ref="B3:S13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4768,10 +4816,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:L61"/>
+  <dimension ref="B4:L73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K72" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5085,6 +5133,11 @@
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="42" t="s">
         <v>843</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="21" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
